--- a/downloaded_files/EECS306_Lecture-35316.xlsx
+++ b/downloaded_files/EECS306_Lecture-35316.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Mohamed Hamdy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45921.7972866898</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Lecture-35316.xlsx
+++ b/downloaded_files/EECS306_Lecture-35316.xlsx
@@ -69,6 +69,15 @@
     <x:t>Asmahan Ibrahim Yosef Albetar</x:t>
   </x:si>
   <x:si>
+    <x:t>1230294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انطون مجدي يعقوب نظير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANTON</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220038</x:t>
   </x:si>
   <x:si>
@@ -166,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -944,7 +944,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.5904606481</x:v>
+        <x:v>45927.4531734144</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45907.5904606481</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8656815162</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4150424769</x:v>
+        <x:v>45912.8656815162</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.429381331</x:v>
+        <x:v>45907.4150424769</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4151279745</x:v>
+        <x:v>45907.429381331</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4195290509</x:v>
+        <x:v>45909.4151279745</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4401424421</x:v>
+        <x:v>45907.4195290509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4146538542</x:v>
+        <x:v>45927.4201885417</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4201091435</x:v>
+        <x:v>45906.4146538542</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.9797975347</x:v>
+        <x:v>45907.4201091435</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1648,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.8068385417</x:v>
+        <x:v>45927.4173986111</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/EECS306_Lecture-35316.xlsx
+++ b/downloaded_files/EECS306_Lecture-35316.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Clara Hany Fawzy Swares</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لجين خالد رمضان محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lojain khaled ramadan mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230237</x:t>
@@ -425,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1008,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45927.7637032407</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1168,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4151279745</x:v>
+        <x:v>45907.4195290509</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4195290509</x:v>
+        <x:v>45927.4201885417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4201885417</x:v>
+        <x:v>45906.4146538542</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4146538542</x:v>
+        <x:v>45907.4201091435</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4201091435</x:v>
+        <x:v>45907.4162026273</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4162026273</x:v>
+        <x:v>45907.6021284722</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6021284722</x:v>
+        <x:v>45907.4816467245</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4816467245</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4189416667</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4189416667</x:v>
+        <x:v>45927.4173986111</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4173986111</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45912.8698941782</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8698941782</x:v>
+        <x:v>45921.7972866898</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1761,38 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45921.7972866898</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Lecture-35316.xlsx
+++ b/downloaded_files/EECS306_Lecture-35316.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Emad Abd ELmoniem Elmazloum Mohammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1287,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4162026273</x:v>
+        <x:v>45928.2246198727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6021284722</x:v>
+        <x:v>45907.4162026273</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4816467245</x:v>
+        <x:v>45907.6021284722</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45907.4816467245</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4164703704</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4143132292</x:v>
+        <x:v>45907.4164703704</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45907.4143132292</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4189416667</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4173986111</x:v>
+        <x:v>45907.4189416667</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45927.4173986111</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.8698941782</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.7972866898</x:v>
+        <x:v>45912.8698941782</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45921.7972866898</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Lecture-35316.xlsx
+++ b/downloaded_files/EECS306_Lecture-35316.xlsx
@@ -147,7 +147,7 @@
     <x:t>محمد احمد محمود احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed Mahmoud Alatar</x:t>
+    <x:t>Mohammed Ahmed Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1210414</x:t>

--- a/downloaded_files/EECS306_Lecture-35316.xlsx
+++ b/downloaded_files/EECS306_Lecture-35316.xlsx
@@ -174,7 +174,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1220021</x:t>
@@ -237,7 +237,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210118</x:t>
@@ -291,7 +291,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1220301</x:t>
